--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4702B01-49D8-4BED-AB5B-495EB0706DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5D951-5F8C-4E5D-B33C-A77149AA68C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53B197A7-4C3D-4BF9-9B7B-BD24A388D0DF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Serpent9999+</t>
+  </si>
+  <si>
+    <t>sadouni.dalal@gmail.com</t>
+  </si>
+  <si>
+    <t>AydenLiam1213@</t>
   </si>
 </sst>
 </file>
@@ -62,13 +68,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,17 +97,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD6570-BCA7-45A2-A2A4-763FD2937ED8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -431,16 +442,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{75E77731-5CC1-4D02-A440-413B1474F39A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{13F333B3-E5C7-41F9-B430-5CF1BF7D9B18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5D951-5F8C-4E5D-B33C-A77149AA68C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80DA34-ABDC-4441-B89E-8FACDD12CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53B197A7-4C3D-4BF9-9B7B-BD24A388D0DF}"/>
+    <workbookView xWindow="1608" yWindow="1332" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{53B197A7-4C3D-4BF9-9B7B-BD24A388D0DF}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="doFindDealer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -52,6 +53,18 @@
   </si>
   <si>
     <t>AydenLiam1213@</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Washington D.C</t>
   </si>
 </sst>
 </file>
@@ -424,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD6570-BCA7-45A2-A2A4-763FD2937ED8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +479,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4770CB1-CEF7-429E-9454-EE0EEAE78560}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB80DA34-ABDC-4441-B89E-8FACDD12CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980522CC-0D4C-4C22-B5CD-E8DC0E20AA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1608" yWindow="1332" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{53B197A7-4C3D-4BF9-9B7B-BD24A388D0DF}"/>
   </bookViews>
